--- a/TuduApplication/TestData/Registration.xlsx
+++ b/TuduApplication/TestData/Registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\Vikesh_eclipse\TuduApplication\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\git\MYtudu\TuduApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1529CC32-5357-426B-B8C7-8AC7EEFD3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B096E-1A12-48C4-A27C-F31471AB2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Doing testing to create project</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>salma.vakil@aimdek.com</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911ED248-C567-496B-BA42-774C77C616F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -635,15 +635,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99F17E7-6350-4D09-A713-4B99FD160515}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +780,10 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TuduApplication/TestData/Registration.xlsx
+++ b/TuduApplication/TestData/Registration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\git\MYtudu\TuduApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B096E-1A12-48C4-A27C-F31471AB2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F60C20-CDCA-4DE5-A8F6-FDE196F390E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="searchProject" sheetId="3" r:id="rId4"/>
     <sheet name="HeaderSearch" sheetId="4" r:id="rId5"/>
     <sheet name="CreateProject" sheetId="5" r:id="rId6"/>
+    <sheet name="ChangePassword" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>First Name</t>
   </si>
@@ -131,12 +133,6 @@
     <t>Select members</t>
   </si>
   <si>
-    <t>Prokect Type</t>
-  </si>
-  <si>
-    <t>Vikesh one</t>
-  </si>
-  <si>
     <t>Doing testing to create project</t>
   </si>
   <si>
@@ -152,7 +148,31 @@
     <t>salma.vakil@aimdek.com</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>Vikesh two</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>confirm Password</t>
+  </si>
+  <si>
+    <t>Vikesh@1989</t>
+  </si>
+  <si>
+    <t>Test@1989</t>
+  </si>
+  <si>
+    <t>All new</t>
   </si>
 </sst>
 </file>
@@ -194,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -203,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402BAB-54F1-4725-9D59-0EF1E8CE04F3}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,59 +583,60 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -635,15 +657,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -692,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E2DDE-411B-40D0-913B-7BA28BDCD11C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -746,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99F17E7-6350-4D09-A713-4B99FD160515}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,21 +793,63 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D2894A-13B0-4646-B297-124EE8DAA892}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/TuduApplication/TestData/Registration.xlsx
+++ b/TuduApplication/TestData/Registration.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\git\MYtudu\TuduApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F60C20-CDCA-4DE5-A8F6-FDE196F390E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CA6D3F-DCDF-44AD-A09F-4F965488619D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
   </bookViews>
   <sheets>
-    <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
-    <sheet name="SetUp" sheetId="6" r:id="rId2"/>
-    <sheet name="ForgotPassword" sheetId="2" r:id="rId3"/>
-    <sheet name="searchProject" sheetId="3" r:id="rId4"/>
-    <sheet name="HeaderSearch" sheetId="4" r:id="rId5"/>
-    <sheet name="CreateProject" sheetId="5" r:id="rId6"/>
-    <sheet name="ChangePassword" sheetId="7" r:id="rId7"/>
+    <sheet name="SetUp" sheetId="6" r:id="rId1"/>
+    <sheet name="ForgotPassword" sheetId="2" r:id="rId2"/>
+    <sheet name="searchProject" sheetId="3" r:id="rId3"/>
+    <sheet name="HeaderSearch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,71 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Organization Name</t>
-  </si>
-  <si>
-    <t>Claim Your Url</t>
-  </si>
-  <si>
-    <t>Organization Email</t>
-  </si>
-  <si>
-    <t>Website Url</t>
-  </si>
-  <si>
-    <t>Work Email</t>
-  </si>
-  <si>
-    <t>SignUp Password</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>Test One</t>
-  </si>
-  <si>
-    <t>testone</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.testone.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pass123$</t>
   </si>
   <si>
-    <t>Harshil</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>2test@gmail.com</t>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.test2.com</t>
-  </si>
-  <si>
-    <t>Pass123@</t>
-  </si>
-  <si>
-    <t>Vikesh</t>
-  </si>
-  <si>
     <t>Forgot Password Email Id</t>
   </si>
   <si>
@@ -124,21 +60,6 @@
     <t>new app</t>
   </si>
   <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Project Description</t>
-  </si>
-  <si>
-    <t>Select members</t>
-  </si>
-  <si>
-    <t>Doing testing to create project</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -146,33 +67,6 @@
   </si>
   <si>
     <t>salma.vakil@aimdek.com</t>
-  </si>
-  <si>
-    <t>Project Type</t>
-  </si>
-  <si>
-    <t>Vikesh two</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Old Password</t>
-  </si>
-  <si>
-    <t>New Password</t>
-  </si>
-  <si>
-    <t>confirm Password</t>
-  </si>
-  <si>
-    <t>Vikesh@1989</t>
-  </si>
-  <si>
-    <t>Test@1989</t>
-  </si>
-  <si>
-    <t>All new</t>
   </si>
 </sst>
 </file>
@@ -214,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -223,7 +117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,115 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402BAB-54F1-4725-9D59-0EF1E8CE04F3}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911ED248-C567-496B-BA42-774C77C616F1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,26 +446,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>112</v>
-      </c>
-      <c r="B3" s="3">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18EA45A-C602-40CA-A7CB-5FD8D450E1D0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -697,12 +478,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374E2DDE-411B-40D0-913B-7BA28BDCD11C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -725,12 +506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -738,11 +519,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B1625D-6541-4A83-943E-47E9C37ABE84}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -753,103 +534,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99F17E7-6350-4D09-A713-4B99FD160515}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D2894A-13B0-4646-B297-124EE8DAA892}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
